--- a/printer.xlsx
+++ b/printer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\printerCLI_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E87AB2-121F-468D-94C3-DBB26D933CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF10B66-A791-4F1F-AFF7-B45FB88E4D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D4A53FF-520E-4109-B28C-73EDA57122DC}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>INTERVALO</t>
   </si>
   <si>
-    <t>PRODUTO INTERMED.</t>
-  </si>
-  <si>
     <t>MOINHO MARTELO</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>VARREDURA</t>
   </si>
   <si>
-    <t>CONSOLID</t>
-  </si>
-  <si>
     <t>VIBROS 3 &amp; 4</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>MOINHO</t>
+  </si>
+  <si>
+    <t>PI MISTURA</t>
+  </si>
+  <si>
+    <t>MISTURA</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -667,224 +667,224 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>

--- a/printer.xlsx
+++ b/printer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\printerCLI_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF10B66-A791-4F1F-AFF7-B45FB88E4D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99A652C-BEA3-4451-8053-66F2613C3EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D4A53FF-520E-4109-B28C-73EDA57122DC}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7270" xr2:uid="{6D4A53FF-520E-4109-B28C-73EDA57122DC}"/>
   </bookViews>
   <sheets>
     <sheet name="printerCLI" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -678,7 +678,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -832,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
@@ -843,7 +843,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
@@ -865,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
@@ -876,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>

--- a/printer.xlsx
+++ b/printer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\printerCLI_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99A652C-BEA3-4451-8053-66F2613C3EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C3051-025A-49BD-821B-676EEC5225CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7270" xr2:uid="{6D4A53FF-520E-4109-B28C-73EDA57122DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D4A53FF-520E-4109-B28C-73EDA57122DC}"/>
   </bookViews>
   <sheets>
     <sheet name="printerCLI" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -678,7 +678,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
